--- a/EN_ODP_annual-TR-work-IMP_PT_program_year_end.xlsx
+++ b/EN_ODP_annual-TR-work-IMP_PT_program_year_end.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -5369,10 +5369,10 @@
   <dimension ref="A1:AC469"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="P20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C32" s="7"/>
